--- a/Excel Data/CDRInwardClearing.xlsx
+++ b/Excel Data/CDRInwardClearing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\QATeam\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CL.NO.MV</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>BANK.SORT.CODE:1</t>
+  </si>
+  <si>
+    <t>001</t>
   </si>
 </sst>
 </file>
@@ -68,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +357,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,8 +384,8 @@
       <c r="B2">
         <v>123456789</v>
       </c>
-      <c r="C2">
-        <v>10</v>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Data/CDRInwardClearing.xlsx
+++ b/Excel Data/CDRInwardClearing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CL.NO.MV</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>CL.RET.CODE:1</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -366,7 +369,7 @@
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,8 +379,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
